--- a/player-analysis/server/customer_model_data/Revenue_Sport.csv.xlsx
+++ b/player-analysis/server/customer_model_data/Revenue_Sport.csv.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Divakar\Angular\spec\analysis_reserach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prototype_login\customer_model_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,16 +48,300 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -61,16 +349,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1 2" xfId="21"/>
+    <cellStyle name="20% - Accent2 2" xfId="25"/>
+    <cellStyle name="20% - Accent3 2" xfId="29"/>
+    <cellStyle name="20% - Accent4 2" xfId="33"/>
+    <cellStyle name="20% - Accent5 2" xfId="37"/>
+    <cellStyle name="20% - Accent6 2" xfId="41"/>
+    <cellStyle name="40% - Accent1 2" xfId="22"/>
+    <cellStyle name="40% - Accent2 2" xfId="26"/>
+    <cellStyle name="40% - Accent3 2" xfId="30"/>
+    <cellStyle name="40% - Accent4 2" xfId="34"/>
+    <cellStyle name="40% - Accent5 2" xfId="38"/>
+    <cellStyle name="40% - Accent6 2" xfId="42"/>
+    <cellStyle name="60% - Accent1 2" xfId="23"/>
+    <cellStyle name="60% - Accent2 2" xfId="27"/>
+    <cellStyle name="60% - Accent3 2" xfId="31"/>
+    <cellStyle name="60% - Accent4 2" xfId="35"/>
+    <cellStyle name="60% - Accent5 2" xfId="39"/>
+    <cellStyle name="60% - Accent6 2" xfId="43"/>
+    <cellStyle name="Accent1 2" xfId="20"/>
+    <cellStyle name="Accent2 2" xfId="24"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="32"/>
+    <cellStyle name="Accent5 2" xfId="36"/>
+    <cellStyle name="Accent6 2" xfId="40"/>
+    <cellStyle name="Bad 2" xfId="9"/>
+    <cellStyle name="Calculation 2" xfId="13"/>
+    <cellStyle name="Check Cell 2" xfId="15"/>
+    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Explanatory Text 2" xfId="18"/>
+    <cellStyle name="Good 2" xfId="8"/>
+    <cellStyle name="Heading 1 2" xfId="4"/>
+    <cellStyle name="Heading 2 2" xfId="5"/>
+    <cellStyle name="Heading 3 2" xfId="6"/>
+    <cellStyle name="Heading 4 2" xfId="7"/>
+    <cellStyle name="Input 2" xfId="11"/>
+    <cellStyle name="Linked Cell 2" xfId="14"/>
+    <cellStyle name="Neutral 2" xfId="10"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Note 2" xfId="17"/>
+    <cellStyle name="Output 2" xfId="12"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total 2" xfId="19"/>
+    <cellStyle name="Warning Text 2" xfId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,12 +867,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -403,106 +885,106 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42455</v>
-      </c>
-      <c r="B2">
-        <v>74181</v>
+        <v>42561</v>
+      </c>
+      <c r="B2" s="2">
+        <v>420936.22810600005</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42469</v>
-      </c>
-      <c r="B3">
-        <v>115430</v>
+        <v>42568</v>
+      </c>
+      <c r="B3" s="2">
+        <v>385339.980537</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>42483</v>
-      </c>
-      <c r="B4">
-        <v>74711</v>
+        <v>42575</v>
+      </c>
+      <c r="B4" s="2">
+        <v>88537.007871000009</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42497</v>
-      </c>
-      <c r="B5">
-        <v>66532</v>
+        <v>42582</v>
+      </c>
+      <c r="B5" s="2">
+        <v>202948.517062</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>42511</v>
-      </c>
-      <c r="B6">
-        <v>60019</v>
+        <v>42589</v>
+      </c>
+      <c r="B6" s="2">
+        <v>194869.55630600001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>42525</v>
-      </c>
-      <c r="B7">
-        <v>51531</v>
+        <v>42596</v>
+      </c>
+      <c r="B7" s="2">
+        <v>133563.17327100001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>42539</v>
-      </c>
-      <c r="B8">
-        <v>65920</v>
+        <v>42603</v>
+      </c>
+      <c r="B8" s="2">
+        <v>122633.41494100001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>42553</v>
-      </c>
-      <c r="B9">
-        <v>89119</v>
+        <v>42610</v>
+      </c>
+      <c r="B9" s="2">
+        <v>450227.10777800001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>42567</v>
-      </c>
-      <c r="B10">
-        <v>68056</v>
+        <v>42617</v>
+      </c>
+      <c r="B10" s="2">
+        <v>307723.22583499999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>42581</v>
-      </c>
-      <c r="B11">
-        <v>40306</v>
+        <v>42624</v>
+      </c>
+      <c r="B11" s="2">
+        <v>311100.90947499999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>42595</v>
-      </c>
-      <c r="B12">
-        <v>58180</v>
+        <v>42631</v>
+      </c>
+      <c r="B12" s="2">
+        <v>228995.45558800001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>42609</v>
-      </c>
-      <c r="B13">
-        <v>80617</v>
+        <v>42638</v>
+      </c>
+      <c r="B13" s="2">
+        <v>480715.82205099997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>42623</v>
-      </c>
-      <c r="B14">
-        <v>65818</v>
+        <v>42645</v>
+      </c>
+      <c r="B14" s="2">
+        <v>381441.48287199996</v>
       </c>
     </row>
   </sheetData>
